--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftUni SPA\Ads-Rest-Services\Ads\SPA_Ads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="JS-SPA-Self-Evaluation-Protocol" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>https://github.com/fakedob/SPA_Ads</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,11 +753,11 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -773,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
@@ -948,7 +951,9 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
@@ -982,7 +987,9 @@
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
@@ -992,7 +999,9 @@
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1011,9 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1023,9 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1067,9 @@
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1064,7 +1079,9 @@
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1074,7 +1091,9 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1103,9 @@
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1115,9 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1104,7 +1127,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>
@@ -1114,7 +1139,9 @@
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +1151,9 @@
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1163,9 @@
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1175,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1187,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1199,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1174,7 +1211,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1223,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1194,7 +1235,9 @@
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1247,9 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1214,7 +1259,9 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1273,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
